--- a/ig/nr-add-ReferenceIdList/all-profiles.xlsx
+++ b/ig/nr-add-ReferenceIdList/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:08:22+00:00</t>
+    <t>2023-10-02T16:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -59436,7 +59436,7 @@
         <v>45</v>
       </c>
       <c r="I516" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J516" t="s" s="2">
         <v>38</v>

--- a/ig/nr-add-ReferenceIdList/all-profiles.xlsx
+++ b/ig/nr-add-ReferenceIdList/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:24:37+00:00</t>
+    <t>2023-10-02T16:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -60698,7 +60698,7 @@
         <v>45</v>
       </c>
       <c r="I528" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J528" t="s" s="2">
         <v>38</v>
@@ -61126,7 +61126,7 @@
         <v>45</v>
       </c>
       <c r="I532" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J532" t="s" s="2">
         <v>38</v>
@@ -61233,7 +61233,7 @@
         <v>45</v>
       </c>
       <c r="I533" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="J533" t="s" s="2">
         <v>38</v>

--- a/ig/nr-add-ReferenceIdList/all-profiles.xlsx
+++ b/ig/nr-add-ReferenceIdList/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-02T16:25:05+00:00</t>
+    <t>2023-10-05T15:57:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3429,28 +3429,28 @@
     <t>Slice based on the type.coding.system pattern</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry</t>
-  </si>
-  <si>
-    <t>xdsdocumententry</t>
+    <t>DocumentReference.context.related:referenceIdList</t>
+  </si>
+  <si>
+    <t>referenceIdList</t>
   </si>
   <si>
     <t>Données d’un « identifiant de référence » (referenceIdList)</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.id</t>
+    <t>DocumentReference.context.related:referenceIdList.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.reference</t>
+    <t>DocumentReference.context.related:referenceIdList.reference</t>
   </si>
   <si>
     <t>DocumentReference.context.related.reference</t>
@@ -3460,31 +3460,31 @@
 ref-1</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.type</t>
+    <t>DocumentReference.context.related:referenceIdList.type</t>
   </si>
   <si>
     <t>DocumentReference.context.related.type</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.id</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.use</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.use</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.use</t>
@@ -3511,7 +3511,7 @@
     <t>Identifier.use</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type</t>
@@ -3538,19 +3538,19 @@
     <t>Identifier.type</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.id</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding</t>
@@ -3571,19 +3571,19 @@
     <t>CodeableConcept.coding</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.id</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.id</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.id</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.extension</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.extension</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.extension</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.system</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.system</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.system</t>
@@ -3601,13 +3601,13 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>urn:ietf:rfc:3986</t>
+    <t>ISO</t>
   </si>
   <si>
     <t>Coding.system</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.version</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.version</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.version</t>
@@ -3625,13 +3625,13 @@
     <t>Coding.version</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.code</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.code</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
+    <t>[CXi.5] Identifier Type Code</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -3646,7 +3646,7 @@
     <t>Coding.code</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.display</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.display</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.display</t>
@@ -3664,7 +3664,7 @@
     <t>Coding.display</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.coding.userSelected</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.coding.userSelected</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.coding.userSelected</t>
@@ -3685,7 +3685,7 @@
     <t>Coding.userSelected</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.type.text</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.type.text</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.type.text</t>
@@ -3706,13 +3706,13 @@
     <t>CodeableConcept.text</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.system</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.system</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
+    <t>[CXi.4] Assigning Authority : n'est pas présent dans le cas de studyInstanceUID.</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -3730,13 +3730,13 @@
     <t>Identifier.system</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.value</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.value</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>[CXi.1] Accession number</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -3751,7 +3751,7 @@
     <t>Identifier.value</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.period</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.period</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.period</t>
@@ -3774,7 +3774,7 @@
 per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.identifier.assigner</t>
+    <t>DocumentReference.context.related:referenceIdList.identifier.assigner</t>
   </si>
   <si>
     <t>DocumentReference.context.related.identifier.assigner</t>
@@ -3796,7 +3796,7 @@
 ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
-    <t>DocumentReference.context.related:xdsdocumententry.display</t>
+    <t>DocumentReference.context.related:referenceIdList.display</t>
   </si>
   <si>
     <t>DocumentReference.context.related.display</t>
@@ -5638,7 +5638,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="53.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="85.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="81.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="67.2578125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="39.9140625" customWidth="true" bestFit="true"/>
@@ -58910,7 +58910,7 @@
         <v>39</v>
       </c>
       <c r="H511" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I511" t="s" s="2">
         <v>38</v>
@@ -61120,7 +61120,7 @@
       </c>
       <c r="F532" s="2"/>
       <c r="G532" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H532" t="s" s="2">
         <v>45</v>

--- a/ig/nr-add-ReferenceIdList/all-profiles.xlsx
+++ b/ig/nr-add-ReferenceIdList/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T15:57:13+00:00</t>
+    <t>2023-10-10T15:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3422,7 +3422,7 @@
     <t>May be identifiers or resources that caused the DocumentReference or referenced Document to be created.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type.coding.system}
+    <t xml:space="preserve">pattern:type}
 </t>
   </si>
   <si>
@@ -3631,7 +3631,7 @@
     <t>DocumentReference.context.related.identifier.type.coding.code</t>
   </si>
   <si>
-    <t>[CXi.5] Identifier Type Code</t>
+    <t>[CXi.5] Identifier Type Code : urn:ihe:iti:xds:2016:studyInstanceUID | urn:ihe:iti:xds:2013:order | urn:ihe:iti:xds:2013:accession</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -3712,7 +3712,7 @@
     <t>DocumentReference.context.related.identifier.system</t>
   </si>
   <si>
-    <t>[CXi.4] Assigning Authority : n'est pas présent dans le cas de studyInstanceUID.</t>
+    <t>[CXi.4.2] Assigning Authority (ce champs n'est pas présent systématiquement, il ne l'est dans le cas de studyInstanceUID notamment).</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -5664,7 +5664,7 @@
     <col min="26" max="26" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="120.0625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="27.61328125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="22.5078125" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="50.03125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
